--- a/in/city.xlsx
+++ b/in/city.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="z_main" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>integer</t>
   </si>
@@ -41,19 +41,25 @@
     <t>id</t>
   </si>
   <si>
-    <t>idss</t>
-  </si>
-  <si>
-    <t>idssss</t>
-  </si>
-  <si>
-    <t>idsss</t>
-  </si>
-  <si>
-    <t>idsssss</t>
-  </si>
-  <si>
-    <t>idssssss</t>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>fieldc</t>
+  </si>
+  <si>
+    <t>fieldsc</t>
+  </si>
+  <si>
+    <t>fieldsce</t>
+  </si>
+  <si>
+    <t>idsc</t>
+  </si>
+  <si>
+    <t>idssc</t>
+  </si>
+  <si>
+    <t>idsce</t>
   </si>
   <si>
     <t>ksc</t>
@@ -87,6 +93,18 @@
   </si>
   <si>
     <t>5;4;6</t>
+  </si>
+  <si>
+    <t>luacode</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{{}}</t>
   </si>
 </sst>
 </file>
@@ -94,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,6 +141,42 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -138,101 +192,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +230,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -261,181 +279,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +470,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,30 +493,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,16 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +555,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,145 +578,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,14 +1048,14 @@
   <sheetPr/>
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -1071,51 +1089,51 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1146,16 +1164,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1172,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1198,16 +1216,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1224,16 +1242,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1245,20 +1263,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1283,57 +1296,66 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1350,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1364,19 +1386,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1390,19 +1415,22 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1416,19 +1444,22 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1442,16 +1473,19 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/in/city.xlsx
+++ b/in/city.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="z_main" sheetId="1" r:id="rId1"/>
     <sheet name="z_camp" sheetId="3" r:id="rId2"/>
+    <sheet name="y_stringval" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>integer</t>
   </si>
@@ -105,6 +106,204 @@
   </si>
   <si>
     <t>{{}}</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>ttttt1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>ttttt2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>ttttt3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>ttttt4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>ttttt5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>ttttt6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>ttttt7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>ttttt8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>ttttt9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>ttttt10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>ttttt11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>ttttt12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>ttttt13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>ttttt14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>ttttt15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>ttttt16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>ttttt17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>ttttt18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>ttttt19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>ttttt20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>ttttt21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>ttttt22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>ttttt23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>ttttt24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>ttttt25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>ttttt26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>ttttt27</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>ttttt28</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>ttttt29</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>ttttt30</t>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>ttttt31</t>
+  </si>
+  <si>
+    <t>s32</t>
+  </si>
+  <si>
+    <t>ttttt32</t>
+  </si>
+  <si>
+    <t>s33</t>
+  </si>
+  <si>
+    <t>ttttt33</t>
   </si>
 </sst>
 </file>
@@ -112,8 +311,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -141,6 +340,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -150,58 +357,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +386,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,6 +453,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -279,6 +478,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,7 +616,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,163 +652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,11 +672,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,22 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,41 +750,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,8 +1464,8 @@
   <sheetPr/>
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,4 +1691,301 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/in/city.xlsx
+++ b/in/city.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="z_main" sheetId="1" r:id="rId1"/>
     <sheet name="z_camp" sheetId="3" r:id="rId2"/>
     <sheet name="y_stringval" sheetId="4" r:id="rId3"/>
+    <sheet name="_G" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
   <si>
     <t>integer</t>
   </si>
@@ -304,6 +305,105 @@
   </si>
   <si>
     <t>ttttt33</t>
+  </si>
+  <si>
+    <t>ksss1</t>
+  </si>
+  <si>
+    <t>ksss2</t>
+  </si>
+  <si>
+    <t>ksss3</t>
+  </si>
+  <si>
+    <t>ksss4</t>
+  </si>
+  <si>
+    <t>ksss5</t>
+  </si>
+  <si>
+    <t>ksss6</t>
+  </si>
+  <si>
+    <t>ksss7</t>
+  </si>
+  <si>
+    <t>ksss8</t>
+  </si>
+  <si>
+    <t>ksss9</t>
+  </si>
+  <si>
+    <t>ksss10</t>
+  </si>
+  <si>
+    <t>ksss11</t>
+  </si>
+  <si>
+    <t>ksss12</t>
+  </si>
+  <si>
+    <t>ksss13</t>
+  </si>
+  <si>
+    <t>ksss14</t>
+  </si>
+  <si>
+    <t>ksss15</t>
+  </si>
+  <si>
+    <t>ksss16</t>
+  </si>
+  <si>
+    <t>ksss17</t>
+  </si>
+  <si>
+    <t>ksss18</t>
+  </si>
+  <si>
+    <t>ksss19</t>
+  </si>
+  <si>
+    <t>ksss20</t>
+  </si>
+  <si>
+    <t>ksss21</t>
+  </si>
+  <si>
+    <t>ksss22</t>
+  </si>
+  <si>
+    <t>ksss23</t>
+  </si>
+  <si>
+    <t>ksss24</t>
+  </si>
+  <si>
+    <t>ksss25</t>
+  </si>
+  <si>
+    <t>ksss26</t>
+  </si>
+  <si>
+    <t>ksss27</t>
+  </si>
+  <si>
+    <t>ksss28</t>
+  </si>
+  <si>
+    <t>ksss29</t>
+  </si>
+  <si>
+    <t>ksss30</t>
+  </si>
+  <si>
+    <t>ksss31</t>
+  </si>
+  <si>
+    <t>ksss32</t>
+  </si>
+  <si>
+    <t>ksss33</t>
   </si>
 </sst>
 </file>
@@ -311,8 +411,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -322,28 +422,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,6 +437,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,7 +473,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,22 +495,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +510,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +549,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,37 +578,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,37 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,103 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,26 +772,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +820,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -735,21 +846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -759,13 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,10 +877,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,133 +889,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1698,8 +1798,8 @@
   <sheetPr/>
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1988,4 +2088,301 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/in/city.xlsx
+++ b/in/city.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="z_main" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>integer</t>
   </si>
@@ -82,19 +82,31 @@
     <t>5;4;3</t>
   </si>
   <si>
+    <t>5.5;4;3.5</t>
+  </si>
+  <si>
     <t>5;4;4;7;7</t>
   </si>
   <si>
     <t>5;4;4|7;7</t>
   </si>
   <si>
+    <t>6;4.5;4</t>
+  </si>
+  <si>
     <t>5;4;4</t>
   </si>
   <si>
     <t>5;4;5</t>
   </si>
   <si>
+    <t>5.5;4;3.6</t>
+  </si>
+  <si>
     <t>5;4;6</t>
+  </si>
+  <si>
+    <t>6;4.5;5</t>
   </si>
   <si>
     <t>luacode</t>
@@ -425,26 +437,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,28 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -494,15 +482,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,9 +504,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,14 +535,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -555,15 +566,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,31 +590,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,151 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,6 +781,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,30 +828,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,10 +889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,133 +901,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1440,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1469,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
@@ -1480,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1489,16 +1501,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1506,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1515,16 +1527,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1532,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1541,16 +1553,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1625,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1697,7 +1709,7 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1714,16 +1726,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>1.1</v>
@@ -1743,16 +1755,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1772,19 +1784,19 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1822,266 +1834,266 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2107,7 @@
   <sheetPr/>
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -2119,266 +2131,266 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
